--- a/BIMASAKTI_11/1.00/PROGRAM/BS Program/SPEC/GSM02500/Other Unit Type.xlsx
+++ b/BIMASAKTI_11/1.00/PROGRAM/BS Program/SPEC/GSM02500/Other Unit Type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\BIMASAKTI 11\Program Specs\GS\Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\BIMASAKTI 11\Program Specs\GSM02500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5054BA0-6275-4137-B179-11417415DF48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0927DC85-382A-496C-A948-134340110902}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{1FF24E20-BBC6-43C0-86AE-C6375945D9D5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1" xr2:uid="{1FF24E20-BBC6-43C0-86AE-C6375945D9D5}"/>
   </bookViews>
   <sheets>
     <sheet name="OtherUnitType" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>No.</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t>Other Unit Type</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Get Data from Master Department</t>
+  </si>
+  <si>
+    <t>PropertyType</t>
+  </si>
+  <si>
+    <t>Property Type</t>
+  </si>
+  <si>
+    <t>01 - Apartment | 02 - Office | 03 - Mall | 04 - Residential | 05 - Industrial Area | 06 - Warehouse | 07 - Other</t>
   </si>
 </sst>
 </file>
@@ -215,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -224,6 +239,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,32 +560,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1A87FA-2433-46F8-AC5D-D5A065704D53}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -572,18 +595,24 @@
         <v>37</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -595,10 +624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8A5E21-C618-4BCA-95F1-7AD3EE4B7A52}">
-  <dimension ref="A2:M17"/>
+  <dimension ref="A2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +642,7 @@
     <col min="10" max="10" width="1.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
     <col min="12" max="12" width="1.42578125" customWidth="1"/>
-    <col min="13" max="13" width="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -714,39 +743,45 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10">
-        <v>12.5</v>
+      <c r="F10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8">
+        <v>20</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -754,22 +789,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11">
-        <v>12.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -777,19 +806,22 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12">
+        <v>12.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -797,42 +829,85 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>8</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I15" t="s">
         <v>30</v>
       </c>
-      <c r="K13">
+      <c r="K15">
         <v>20230701</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M15" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
     </row>
